--- a/DCS_Missions/DCS_Maps/Kola/Base/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Kola/Base/Kneeboards/presets.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repo\DCS\DCS_Missions\DCS_Maps\Syria\Base\Kneeboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repo\DCS\DCS_Missions\DCS_Maps\Kola\Base\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90A79DD-62B2-4075-B152-B47B8A08C3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B8CFAD-3B0F-4088-A6B2-A7C8B131F6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="2835" windowWidth="43200" windowHeight="17145" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="15885" yWindow="4620" windowWidth="43200" windowHeight="17145" activeTab="5" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="F-15E" sheetId="18" r:id="rId1"/>
-    <sheet name="P-47" sheetId="17" r:id="rId2"/>
-    <sheet name="AV8" sheetId="15" r:id="rId3"/>
-    <sheet name="MiG-19" sheetId="14" r:id="rId4"/>
-    <sheet name="MiG-21" sheetId="13" r:id="rId5"/>
-    <sheet name="F-16" sheetId="11" r:id="rId6"/>
-    <sheet name="FA-18C" sheetId="4" r:id="rId7"/>
-    <sheet name="FA-14A" sheetId="16" r:id="rId8"/>
+    <sheet name="FA-18C" sheetId="4" r:id="rId1"/>
+    <sheet name="F-16" sheetId="11" r:id="rId2"/>
+    <sheet name="FA-14A" sheetId="16" r:id="rId3"/>
+    <sheet name="F-15E" sheetId="18" r:id="rId4"/>
+    <sheet name="P-47" sheetId="17" r:id="rId5"/>
+    <sheet name="AV8" sheetId="15" r:id="rId6"/>
+    <sheet name="MiG-19" sheetId="14" r:id="rId7"/>
+    <sheet name="MiG-21" sheetId="13" r:id="rId8"/>
     <sheet name="Mirage F1CE" sheetId="5" r:id="rId9"/>
     <sheet name="Mi-24" sheetId="3" r:id="rId10"/>
     <sheet name="Ka-50" sheetId="2" r:id="rId11"/>
@@ -28,17 +28,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'AH-64'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'AV8'!$D$3:$M$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-15E'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'F-16'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'FA-14A'!$D$3:$J$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'FA-18C'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'AV8'!$D$3:$M$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'F-15E'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'F-16'!$D$3:$J$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'FA-14A'!$D$3:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'FA-18C'!$D$3:$J$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Ka-50'!$D$3:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Mi-24'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'MiG-19'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'MiG-21'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'MiG-19'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'MiG-21'!$D$3:$J$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Mirage F1CE'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'P-47'!$D$3:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'P-47'!$D$3:$J$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="244">
   <si>
     <t>ARC-186</t>
   </si>
@@ -335,12 +335,6 @@
     <t>"Texaco AAR" - TACAN 52 Y</t>
   </si>
   <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>LCRA ATIS</t>
-  </si>
-  <si>
     <t>339.85</t>
   </si>
   <si>
@@ -551,12 +545,6 @@
     <t>"Arco Rcvr AAR" - TACAN 1 Y</t>
   </si>
   <si>
-    <t>LCRA ILS - 109,70 MHz / 291</t>
-  </si>
-  <si>
-    <t>AKR TACAN - 107 X</t>
-  </si>
-  <si>
     <t>130.10</t>
   </si>
   <si>
@@ -650,12 +638,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>LHA 1 - TACAN 66 X</t>
-  </si>
-  <si>
-    <t>LHA 1 - ICLS Ch 6</t>
-  </si>
-  <si>
     <t>30/400</t>
   </si>
   <si>
@@ -674,12 +656,6 @@
     <t>"Shell 2 AAR" - TACAN 53 Y</t>
   </si>
   <si>
-    <t>267.00</t>
-  </si>
-  <si>
-    <t>LHA Tower</t>
-  </si>
-  <si>
     <t>267.50</t>
   </si>
   <si>
@@ -698,9 +674,6 @@
     <t>KC-135 30k</t>
   </si>
   <si>
-    <t>CVN-75</t>
-  </si>
-  <si>
     <t>NATASHA</t>
   </si>
   <si>
@@ -779,37 +752,46 @@
     <t>ST</t>
   </si>
   <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>BULLS</t>
-  </si>
-  <si>
-    <t>LCRA</t>
-  </si>
-  <si>
-    <t>LCLK</t>
-  </si>
-  <si>
-    <t>LLRD</t>
-  </si>
-  <si>
-    <t>CAP</t>
-  </si>
-  <si>
-    <t>ASSAD</t>
-  </si>
-  <si>
-    <t>PALMYRA</t>
-  </si>
-  <si>
-    <t>BEIRUT</t>
-  </si>
-  <si>
     <t>F-15E</t>
   </si>
   <si>
     <t>30/339.97</t>
+  </si>
+  <si>
+    <t>Navy One AAR</t>
+  </si>
+  <si>
+    <t>"Navy One AAR" - TACAN 1 Y</t>
+  </si>
+  <si>
+    <t>EFRO Tower</t>
+  </si>
+  <si>
+    <t>EFRO ILS - 109,70 MHz / 291</t>
+  </si>
+  <si>
+    <t>EFRO TACAN - 24 X</t>
+  </si>
+  <si>
+    <t>BAS100 TACAN - 27 X</t>
+  </si>
+  <si>
+    <t>rwy 22/04</t>
+  </si>
+  <si>
+    <t>126.70</t>
+  </si>
+  <si>
+    <t>EFRO ATIS</t>
+  </si>
+  <si>
+    <t>EFRO</t>
+  </si>
+  <si>
+    <t>BAS100</t>
+  </si>
+  <si>
+    <t>BAS100 Control</t>
   </si>
 </sst>
 </file>
@@ -896,7 +878,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,12 +989,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1031,7 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1661,24 +1637,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1688,6 +1646,18 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1697,40 +1667,34 @@
     <xf numFmtId="0" fontId="7" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1738,61 +1702,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1913,9 +1983,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1953,7 +2023,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2059,7 +2129,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2201,748 +2271,602 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC726452-1D9E-4E59-90A5-3EC471D42BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F51AC91-C073-48F1-A978-1644164E838A}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="C2:N35"/>
+  <dimension ref="D2:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
-    </row>
-    <row r="4" spans="4:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
-    </row>
-    <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="184" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="185"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="187"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>87</v>
-      </c>
+      <c r="F5" s="43"/>
       <c r="G5" s="41" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="143">
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="97">
         <v>1</v>
       </c>
-      <c r="E6" s="144" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="145" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="88">
+      <c r="E6" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="109">
         <v>1</v>
       </c>
-      <c r="H6" s="207" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="208" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="88">
-        <v>21</v>
-      </c>
-      <c r="K6" s="144" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="145" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="146">
+      <c r="H6" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="93">
         <v>2</v>
       </c>
-      <c r="E7" s="147" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="156">
+      <c r="E7" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="112">
         <v>2</v>
       </c>
-      <c r="H7" s="157" t="s">
-        <v>165</v>
-      </c>
-      <c r="I7" s="158" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="89">
-        <v>22</v>
-      </c>
-      <c r="K7" s="147" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="148" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="146">
+      <c r="H7" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="93">
         <v>3</v>
       </c>
-      <c r="E8" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="148" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="156">
+      <c r="E8" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="115">
         <v>3</v>
       </c>
-      <c r="H8" s="157" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" s="158" t="s">
-        <v>214</v>
-      </c>
-      <c r="J8" s="89">
-        <v>23</v>
-      </c>
-      <c r="K8" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="148" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="89">
+      <c r="H8" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="93">
         <v>4</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="115">
+        <v>4</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="98">
+        <v>5</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="115">
+        <v>5</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="89">
+        <v>6</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="115">
+        <v>6</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="98">
         <v>7</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="156">
-        <v>4</v>
-      </c>
-      <c r="H9" s="157" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="158" t="s">
-        <v>215</v>
-      </c>
-      <c r="J9" s="89">
-        <v>24</v>
-      </c>
-      <c r="K9" s="90" t="s">
+      <c r="E12" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="115">
         <v>7</v>
       </c>
-      <c r="L9" s="105"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="89">
-        <v>5</v>
-      </c>
-      <c r="E10" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="156">
-        <v>5</v>
-      </c>
-      <c r="H10" s="157" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="158" t="s">
-        <v>216</v>
-      </c>
-      <c r="J10" s="89">
-        <v>25</v>
-      </c>
-      <c r="K10" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="98">
-        <v>6</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="156">
-        <v>6</v>
-      </c>
-      <c r="H11" s="157" t="s">
-        <v>169</v>
-      </c>
-      <c r="I11" s="158" t="s">
-        <v>217</v>
-      </c>
-      <c r="J11" s="89">
-        <v>26</v>
-      </c>
-      <c r="K11" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="100" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="89">
-        <v>7</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="156">
-        <v>7</v>
-      </c>
-      <c r="H12" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="I12" s="158" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="89">
-        <v>27</v>
-      </c>
-      <c r="K12" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="L12" s="91"/>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" s="106">
         <v>8</v>
       </c>
       <c r="E13" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="156">
+        <v>136</v>
+      </c>
+      <c r="G13" s="112">
         <v>8</v>
       </c>
-      <c r="H13" s="157" t="s">
-        <v>183</v>
-      </c>
-      <c r="I13" s="158" t="s">
-        <v>219</v>
-      </c>
-      <c r="J13" s="89">
-        <v>28</v>
-      </c>
-      <c r="K13" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13" s="108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D14" s="106">
         <v>9</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="108" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G14" s="89">
         <v>9</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I14" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="89">
-        <v>29</v>
-      </c>
-      <c r="K14" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="108" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" s="106">
         <v>10</v>
       </c>
       <c r="E15" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15" s="108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G15" s="89">
         <v>10</v>
       </c>
       <c r="H15" s="90" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I15" s="91" t="s">
-        <v>154</v>
-      </c>
-      <c r="J15" s="89">
-        <v>30</v>
-      </c>
-      <c r="K15" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="108" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D16" s="106">
         <v>11</v>
       </c>
       <c r="E16" s="107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="108" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G16" s="89">
         <v>11</v>
       </c>
       <c r="H16" s="90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="89">
-        <v>31</v>
-      </c>
-      <c r="K16" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="J16" s="193"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
         <v>12</v>
       </c>
       <c r="E17" s="107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G17" s="89">
         <v>12</v>
       </c>
       <c r="H17" s="90" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I17" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="89">
-        <v>32</v>
-      </c>
-      <c r="K17" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" s="108" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="J17" s="193"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
         <v>13</v>
       </c>
       <c r="E18" s="124" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G18" s="89">
         <v>13</v>
       </c>
       <c r="H18" s="90" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I18" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="89">
-        <v>33</v>
-      </c>
-      <c r="K18" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" s="125" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="J18" s="193"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
         <v>14</v>
       </c>
       <c r="E19" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="127" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="106">
+        <v>14</v>
+      </c>
+      <c r="H19" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="193"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="93">
+        <v>15</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="106">
+        <v>15</v>
+      </c>
+      <c r="H20" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="93">
+        <v>16</v>
+      </c>
+      <c r="E21" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="127" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="89">
-        <v>14</v>
-      </c>
-      <c r="H19" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="91"/>
-      <c r="J19" s="89">
-        <v>34</v>
-      </c>
-      <c r="K19" s="126" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="127" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="115">
-        <v>15</v>
-      </c>
-      <c r="E20" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="89">
-        <v>15</v>
-      </c>
-      <c r="H20" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="I20" s="91"/>
-      <c r="J20" s="89">
-        <v>35</v>
-      </c>
-      <c r="K20" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="115">
+      <c r="F21" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="106">
         <v>16</v>
       </c>
-      <c r="E21" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="89">
-        <v>16</v>
-      </c>
-      <c r="H21" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="91"/>
-      <c r="J21" s="89">
-        <v>36</v>
-      </c>
-      <c r="K21" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="L21" s="117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="115">
+      <c r="H21" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="93">
         <v>17</v>
       </c>
-      <c r="E22" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="89">
+      <c r="E22" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="93">
         <v>17</v>
       </c>
-      <c r="H22" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="I22" s="91"/>
-      <c r="J22" s="89">
-        <v>37</v>
-      </c>
-      <c r="K22" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="L22" s="117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="115">
+      <c r="H22" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D23" s="179">
         <v>18</v>
       </c>
-      <c r="E23" s="116" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="117" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="89">
+      <c r="E23" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="158" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="93">
         <v>18</v>
       </c>
-      <c r="H23" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="I23" s="91"/>
-      <c r="J23" s="89">
-        <v>38</v>
-      </c>
-      <c r="K23" s="116" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" s="117" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="115">
+      <c r="H23" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="179">
         <v>19</v>
       </c>
-      <c r="E24" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="89">
+      <c r="E24" s="157" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="158" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="128">
         <v>19</v>
       </c>
-      <c r="H24" s="90" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24" s="91"/>
-      <c r="J24" s="89">
-        <v>39</v>
-      </c>
-      <c r="K24" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="L24" s="117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="165">
+      <c r="H24" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="118">
         <v>20</v>
       </c>
-      <c r="E25" s="166" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="167"/>
-      <c r="G25" s="186">
+      <c r="E25" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="118">
         <v>20</v>
       </c>
-      <c r="H25" s="209" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="210" t="s">
-        <v>132</v>
-      </c>
-      <c r="J25" s="165">
-        <v>40</v>
-      </c>
-      <c r="K25" s="166" t="s">
-        <v>178</v>
-      </c>
-      <c r="L25" s="167"/>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="51"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="52"/>
-    </row>
-    <row r="27" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="4"/>
-      <c r="F27" s="28"/>
-      <c r="N27" s="85"/>
-    </row>
-    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="149" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="196" t="s">
+      <c r="H25" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="120" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+      <c r="T27" s="85"/>
+    </row>
+    <row r="28" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="197"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="211"/>
-    </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="149" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="152" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="153"/>
-      <c r="F30" s="154"/>
-      <c r="G30" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" s="86"/>
+      <c r="I29" s="191"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="197"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="199"/>
       <c r="I30" s="87"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="50"/>
-      <c r="F31" s="28"/>
-      <c r="H31" s="86"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="197"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="199"/>
       <c r="I31" s="87"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="212"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="215"/>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="140" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="200"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="198" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="199"/>
       <c r="I32" s="87"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="50"/>
-      <c r="F33" s="28"/>
-      <c r="H33" s="86"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="200"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="199"/>
       <c r="I33" s="87"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="135"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="137"/>
-      <c r="E35" s="138"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="2"/>
-      <c r="L35" s="51"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="200"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="199"/>
+      <c r="I34" s="87"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="149" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="202"/>
+      <c r="F35" s="202"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="149" t="s">
+        <v>236</v>
+      </c>
+      <c r="E36" s="202"/>
+      <c r="F36" s="202"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="206"/>
+    </row>
+    <row r="37" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="203" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="205" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D3:E4"/>
     <mergeCell ref="F3:I4"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J16:J19"/>
   </mergeCells>
-  <conditionalFormatting sqref="E6:F6">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:L6">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
@@ -2965,24 +2889,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="57" t="s">
@@ -3293,10 +3217,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="191"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -3371,24 +3295,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -3650,10 +3574,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="191"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -3728,24 +3652,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -4100,10 +4024,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="191"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -4163,6 +4087,2031 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D402C37-66B5-4257-A1F7-F7996E4A697B}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="C2:N35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="184" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="185"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="187"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="143">
+        <v>1</v>
+      </c>
+      <c r="E6" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="88">
+        <v>1</v>
+      </c>
+      <c r="H6" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="216">
+        <v>2</v>
+      </c>
+      <c r="E7" s="217" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="218"/>
+      <c r="G7" s="156">
+        <v>2</v>
+      </c>
+      <c r="H7" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="158" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="216">
+        <v>3</v>
+      </c>
+      <c r="E8" s="217" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="218"/>
+      <c r="G8" s="156">
+        <v>3</v>
+      </c>
+      <c r="H8" s="157" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="158" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="89">
+        <v>4</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="105"/>
+      <c r="G9" s="156">
+        <v>4</v>
+      </c>
+      <c r="H9" s="157" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="89">
+        <v>5</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="156">
+        <v>5</v>
+      </c>
+      <c r="H10" s="157" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="158" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="98">
+        <v>6</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="156">
+        <v>6</v>
+      </c>
+      <c r="H11" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="158" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="89">
+        <v>7</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="91"/>
+      <c r="G12" s="156">
+        <v>7</v>
+      </c>
+      <c r="H12" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="158" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="106">
+        <v>8</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="156">
+        <v>8</v>
+      </c>
+      <c r="H13" s="157" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="158" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="106">
+        <v>9</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="89">
+        <v>9</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="106">
+        <v>10</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="89">
+        <v>10</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="106">
+        <v>11</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="89">
+        <v>11</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="193"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="106">
+        <v>12</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="89">
+        <v>12</v>
+      </c>
+      <c r="H17" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="193"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="123">
+        <v>13</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="89">
+        <v>13</v>
+      </c>
+      <c r="H18" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="193"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="123">
+        <v>14</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="127" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="89">
+        <v>14</v>
+      </c>
+      <c r="H19" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="91"/>
+      <c r="J19" s="193"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="115">
+        <v>15</v>
+      </c>
+      <c r="E20" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="89">
+        <v>15</v>
+      </c>
+      <c r="H20" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="115">
+        <v>16</v>
+      </c>
+      <c r="E21" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="89">
+        <v>16</v>
+      </c>
+      <c r="H21" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="91"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="115">
+        <v>17</v>
+      </c>
+      <c r="E22" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="89">
+        <v>17</v>
+      </c>
+      <c r="H22" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="115">
+        <v>18</v>
+      </c>
+      <c r="E23" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="89">
+        <v>18</v>
+      </c>
+      <c r="H23" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="91"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="115">
+        <v>19</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="89">
+        <v>19</v>
+      </c>
+      <c r="H24" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="89">
+        <v>20</v>
+      </c>
+      <c r="E25" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="91"/>
+      <c r="G25" s="118">
+        <v>20</v>
+      </c>
+      <c r="H25" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="52"/>
+      <c r="N27" s="85"/>
+    </row>
+    <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="149" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="191"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="149" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="149" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="196" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="152" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="153"/>
+      <c r="F32" s="154"/>
+      <c r="G32" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="50"/>
+      <c r="F33" s="28"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="135"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="137"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="139"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E6:F6">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F25AB18-3E43-4253-BC4D-F3ACD98E8098}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="D2:T45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="184" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="185"/>
+    </row>
+    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="187"/>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="194" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="195"/>
+      <c r="F5" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="194" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="195"/>
+      <c r="I5" s="43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="97">
+        <v>1</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="109">
+        <v>1</v>
+      </c>
+      <c r="H6" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="93">
+        <v>2</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="112">
+        <v>2</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="93">
+        <v>3</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="115">
+        <v>3</v>
+      </c>
+      <c r="H8" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="93">
+        <v>4</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="115">
+        <v>4</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="98">
+        <v>5</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="115">
+        <v>5</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="89">
+        <v>6</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="122" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="115">
+        <v>6</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="98">
+        <v>7</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="115">
+        <v>7</v>
+      </c>
+      <c r="H12" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="106">
+        <v>8</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="112">
+        <v>8</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="106">
+        <v>9</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="89">
+        <v>9</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="106">
+        <v>10</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="89">
+        <v>10</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="106">
+        <v>11</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="89">
+        <v>11</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="193"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D17" s="106">
+        <v>12</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="89">
+        <v>12</v>
+      </c>
+      <c r="H17" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="193"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18" s="123">
+        <v>13</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="89">
+        <v>13</v>
+      </c>
+      <c r="H18" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="193"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D19" s="123">
+        <v>14</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="127" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="106">
+        <v>14</v>
+      </c>
+      <c r="H19" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="193"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="93">
+        <v>15</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="106">
+        <v>15</v>
+      </c>
+      <c r="H20" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="93">
+        <v>16</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="106">
+        <v>16</v>
+      </c>
+      <c r="H21" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="93">
+        <v>17</v>
+      </c>
+      <c r="E22" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="93">
+        <v>17</v>
+      </c>
+      <c r="H22" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D23" s="115">
+        <v>18</v>
+      </c>
+      <c r="E23" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="93">
+        <v>18</v>
+      </c>
+      <c r="H23" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="115">
+        <v>19</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="128">
+        <v>19</v>
+      </c>
+      <c r="H24" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="115">
+        <v>20</v>
+      </c>
+      <c r="E25" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="118">
+        <v>20</v>
+      </c>
+      <c r="H25" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="120" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="118">
+        <v>21</v>
+      </c>
+      <c r="H26" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="51"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="181">
+        <v>22</v>
+      </c>
+      <c r="H27" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="158" t="s">
+        <v>204</v>
+      </c>
+      <c r="T27" s="85"/>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="51"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="181">
+        <v>23</v>
+      </c>
+      <c r="H28" s="157" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="158" t="s">
+        <v>205</v>
+      </c>
+      <c r="T28" s="85"/>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D29" s="51"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="181">
+        <v>24</v>
+      </c>
+      <c r="H29" s="157" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="158" t="s">
+        <v>206</v>
+      </c>
+      <c r="T29" s="85"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="51"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="181">
+        <v>25</v>
+      </c>
+      <c r="H30" s="157" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" s="158" t="s">
+        <v>207</v>
+      </c>
+      <c r="T30" s="85"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="51"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="181">
+        <v>26</v>
+      </c>
+      <c r="H31" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="I31" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="T31" s="85"/>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="51"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="181">
+        <v>27</v>
+      </c>
+      <c r="H32" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="I32" s="158" t="s">
+        <v>209</v>
+      </c>
+      <c r="T32" s="85"/>
+    </row>
+    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D33" s="51"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="181">
+        <v>28</v>
+      </c>
+      <c r="H33" s="157" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" s="158" t="s">
+        <v>210</v>
+      </c>
+      <c r="T33" s="85"/>
+    </row>
+    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D34" s="51"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="32">
+        <v>29</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="T34" s="85"/>
+    </row>
+    <row r="35" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="51"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="36">
+        <v>30</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="T35" s="85"/>
+    </row>
+    <row r="36" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="191"/>
+    </row>
+    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D38" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="197"/>
+      <c r="F38" s="197"/>
+      <c r="G38" s="198"/>
+      <c r="H38" s="207" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" s="182" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D39" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="197"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="207" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="182" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D40" s="140" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="200"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="198" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="207" t="s">
+        <v>225</v>
+      </c>
+      <c r="I40" s="182"/>
+    </row>
+    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D41" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="200"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="H41" s="208" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" s="183"/>
+    </row>
+    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D42" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" s="200"/>
+      <c r="F42" s="201"/>
+      <c r="G42" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="208" t="s">
+        <v>227</v>
+      </c>
+      <c r="I42" s="183"/>
+    </row>
+    <row r="43" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D43" s="149" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="202"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="208" t="s">
+        <v>228</v>
+      </c>
+      <c r="I43" s="183"/>
+    </row>
+    <row r="44" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D44" s="149" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="202"/>
+      <c r="F44" s="202"/>
+      <c r="G44" s="198"/>
+      <c r="H44" s="208" t="s">
+        <v>229</v>
+      </c>
+      <c r="I44" s="209"/>
+    </row>
+    <row r="45" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="203" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" s="204"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="205" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC726452-1D9E-4E59-90A5-3EC471D42BCE}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="C2:N35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="184" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="185"/>
+    </row>
+    <row r="4" spans="4:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="187"/>
+    </row>
+    <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="143">
+        <v>1</v>
+      </c>
+      <c r="E6" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="88">
+        <v>1</v>
+      </c>
+      <c r="H6" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" s="143">
+        <v>21</v>
+      </c>
+      <c r="K6" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="145" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="216">
+        <v>2</v>
+      </c>
+      <c r="E7" s="217" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="218"/>
+      <c r="G7" s="156">
+        <v>2</v>
+      </c>
+      <c r="H7" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="158" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" s="216">
+        <v>22</v>
+      </c>
+      <c r="K7" s="217" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="218"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="216">
+        <v>3</v>
+      </c>
+      <c r="E8" s="217" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="218"/>
+      <c r="G8" s="156">
+        <v>3</v>
+      </c>
+      <c r="H8" s="157" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="158" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="216">
+        <v>23</v>
+      </c>
+      <c r="K8" s="217" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="218"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="89">
+        <v>4</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="105"/>
+      <c r="G9" s="156">
+        <v>4</v>
+      </c>
+      <c r="H9" s="157" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="158" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="89">
+        <v>24</v>
+      </c>
+      <c r="K9" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="105"/>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="89">
+        <v>5</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="156">
+        <v>5</v>
+      </c>
+      <c r="H10" s="157" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="158" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" s="89">
+        <v>25</v>
+      </c>
+      <c r="K10" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="98">
+        <v>6</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="156">
+        <v>6</v>
+      </c>
+      <c r="H11" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="158" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="98">
+        <v>26</v>
+      </c>
+      <c r="K11" s="99" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="89">
+        <v>7</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="91"/>
+      <c r="G12" s="156">
+        <v>7</v>
+      </c>
+      <c r="H12" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="158" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="89">
+        <v>27</v>
+      </c>
+      <c r="K12" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" s="91"/>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="106">
+        <v>8</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="156">
+        <v>8</v>
+      </c>
+      <c r="H13" s="157" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="158" t="s">
+        <v>210</v>
+      </c>
+      <c r="J13" s="106">
+        <v>28</v>
+      </c>
+      <c r="K13" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="106">
+        <v>9</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="89">
+        <v>9</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="106">
+        <v>29</v>
+      </c>
+      <c r="K14" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="106">
+        <v>10</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="89">
+        <v>10</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="106">
+        <v>30</v>
+      </c>
+      <c r="K15" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="106">
+        <v>11</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="89">
+        <v>11</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" s="106">
+        <v>31</v>
+      </c>
+      <c r="K16" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="106">
+        <v>12</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="89">
+        <v>12</v>
+      </c>
+      <c r="H17" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="106">
+        <v>32</v>
+      </c>
+      <c r="K17" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="123">
+        <v>13</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="125" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="89">
+        <v>13</v>
+      </c>
+      <c r="H18" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="123">
+        <v>33</v>
+      </c>
+      <c r="K18" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="123">
+        <v>14</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="127" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="89">
+        <v>14</v>
+      </c>
+      <c r="H19" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="91"/>
+      <c r="J19" s="123">
+        <v>34</v>
+      </c>
+      <c r="K19" s="126" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="115">
+        <v>15</v>
+      </c>
+      <c r="E20" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="117" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="89">
+        <v>15</v>
+      </c>
+      <c r="H20" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="91"/>
+      <c r="J20" s="115">
+        <v>35</v>
+      </c>
+      <c r="K20" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="115">
+        <v>16</v>
+      </c>
+      <c r="E21" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="89">
+        <v>16</v>
+      </c>
+      <c r="H21" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="91"/>
+      <c r="J21" s="115">
+        <v>36</v>
+      </c>
+      <c r="K21" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="115">
+        <v>17</v>
+      </c>
+      <c r="E22" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="89">
+        <v>17</v>
+      </c>
+      <c r="H22" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="91"/>
+      <c r="J22" s="115">
+        <v>37</v>
+      </c>
+      <c r="K22" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="115">
+        <v>18</v>
+      </c>
+      <c r="E23" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="89">
+        <v>18</v>
+      </c>
+      <c r="H23" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="91"/>
+      <c r="J23" s="115">
+        <v>38</v>
+      </c>
+      <c r="K23" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="115">
+        <v>19</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="89">
+        <v>19</v>
+      </c>
+      <c r="H24" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="91"/>
+      <c r="J24" s="115">
+        <v>39</v>
+      </c>
+      <c r="K24" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="165">
+        <v>20</v>
+      </c>
+      <c r="E25" s="166" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="167"/>
+      <c r="G25" s="118">
+        <v>20</v>
+      </c>
+      <c r="H25" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="165">
+        <v>40</v>
+      </c>
+      <c r="K25" s="166" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="167"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="51"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="52"/>
+    </row>
+    <row r="27" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="4"/>
+      <c r="F27" s="28"/>
+      <c r="N27" s="85"/>
+    </row>
+    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="149" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="190" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="191"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="192"/>
+      <c r="L28" s="192"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="149" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="149" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="196" t="s">
+        <v>238</v>
+      </c>
+      <c r="H30" s="86"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="152" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="153"/>
+      <c r="F31" s="154"/>
+      <c r="G31" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="50"/>
+      <c r="F32" s="28"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="50"/>
+      <c r="F33" s="28"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="135"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="137"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="2"/>
+      <c r="L35" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E6:F6">
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:L6">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB03D3C-8C30-43FB-9AAB-15549108B8FA}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -4182,50 +6131,50 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="D3" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="204" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="205"/>
+      <c r="D5" s="194" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="195"/>
       <c r="F5" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="G5" s="204" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" s="205"/>
+        <v>219</v>
+      </c>
+      <c r="G5" s="194" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="195"/>
       <c r="I5" s="43" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="187">
+      <c r="D6" s="181">
         <v>22</v>
       </c>
       <c r="E6" s="157" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F6" s="158" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G6" s="109">
         <v>1</v>
@@ -4236,42 +6185,42 @@
       <c r="I6" s="111"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="187">
+      <c r="D7" s="181">
         <v>23</v>
       </c>
       <c r="E7" s="157" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F7" s="158" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G7" s="112"/>
       <c r="H7" s="113"/>
       <c r="I7" s="114"/>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="187">
+      <c r="D8" s="181">
         <v>24</v>
       </c>
       <c r="E8" s="157" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F8" s="158" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G8" s="115"/>
       <c r="H8" s="116"/>
       <c r="I8" s="117"/>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="187">
+      <c r="D9" s="181">
         <v>25</v>
       </c>
       <c r="E9" s="157" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F9" s="158" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G9" s="115"/>
       <c r="H9" s="116"/>
@@ -4333,7 +6282,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="206"/>
+      <c r="J16" s="193"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106"/>
@@ -4342,7 +6291,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="206"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123"/>
@@ -4351,7 +6300,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="206"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123"/>
@@ -4360,7 +6309,7 @@
       <c r="G19" s="106"/>
       <c r="H19" s="107"/>
       <c r="I19" s="108"/>
-      <c r="J19" s="206"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93"/>
@@ -4424,7 +6373,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="12"/>
       <c r="F27" s="53"/>
-      <c r="G27" s="187"/>
+      <c r="G27" s="181"/>
       <c r="H27" s="157"/>
       <c r="I27" s="158"/>
       <c r="T27" s="85"/>
@@ -4433,7 +6382,7 @@
       <c r="D28" s="51"/>
       <c r="E28" s="12"/>
       <c r="F28" s="53"/>
-      <c r="G28" s="187"/>
+      <c r="G28" s="181"/>
       <c r="H28" s="157"/>
       <c r="I28" s="158"/>
       <c r="T28" s="85"/>
@@ -4442,7 +6391,7 @@
       <c r="D29" s="51"/>
       <c r="E29" s="12"/>
       <c r="F29" s="53"/>
-      <c r="G29" s="187"/>
+      <c r="G29" s="181"/>
       <c r="H29" s="157"/>
       <c r="I29" s="158"/>
       <c r="T29" s="85"/>
@@ -4451,7 +6400,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="12"/>
       <c r="F30" s="53"/>
-      <c r="G30" s="187"/>
+      <c r="G30" s="181"/>
       <c r="H30" s="157"/>
       <c r="I30" s="158"/>
       <c r="T30" s="85"/>
@@ -4460,7 +6409,7 @@
       <c r="D31" s="51"/>
       <c r="E31" s="12"/>
       <c r="F31" s="53"/>
-      <c r="G31" s="187"/>
+      <c r="G31" s="181"/>
       <c r="H31" s="157"/>
       <c r="I31" s="158"/>
       <c r="T31" s="85"/>
@@ -4469,7 +6418,7 @@
       <c r="D32" s="51"/>
       <c r="E32" s="12"/>
       <c r="F32" s="53"/>
-      <c r="G32" s="187"/>
+      <c r="G32" s="181"/>
       <c r="H32" s="157"/>
       <c r="I32" s="158"/>
       <c r="T32" s="85"/>
@@ -4478,7 +6427,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="12"/>
       <c r="F33" s="53"/>
-      <c r="G33" s="187"/>
+      <c r="G33" s="181"/>
       <c r="H33" s="157"/>
       <c r="I33" s="158"/>
       <c r="T33" s="85"/>
@@ -4506,19 +6455,19 @@
     </row>
     <row r="37" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" s="131" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="196" t="s">
+      <c r="H37" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="197"/>
+      <c r="I37" s="191"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E38" s="134"/>
       <c r="F38" s="134"/>
@@ -4527,7 +6476,7 @@
     </row>
     <row r="39" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D39" s="133" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E39" s="134"/>
       <c r="F39" s="134"/>
@@ -4536,12 +6485,12 @@
     </row>
     <row r="40" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D40" s="140" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E40" s="141"/>
       <c r="F40" s="142"/>
       <c r="G40" s="86" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H40" s="86"/>
       <c r="I40" s="87"/>
@@ -4553,19 +6502,19 @@
       <c r="E41" s="141"/>
       <c r="F41" s="142"/>
       <c r="G41" s="86" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H41" s="86"/>
       <c r="I41" s="87"/>
     </row>
     <row r="42" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D42" s="140" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E42" s="141"/>
       <c r="F42" s="142"/>
       <c r="G42" s="86" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H42" s="86"/>
       <c r="I42" s="87"/>
@@ -4599,15 +6548,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365C29CA-8A91-4FD6-8610-04D4B59A757C}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="D2:M46"/>
+  <dimension ref="D2:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:L26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4623,101 +6572,113 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="199"/>
+      <c r="D3" s="184" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="185"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="201"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="189"/>
+      <c r="L4" s="187"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G5" s="162" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H5" s="162"/>
       <c r="I5" s="43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K5" s="42" t="s">
         <v>65</v>
       </c>
       <c r="L5" s="43" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="169">
+      <c r="D6" s="143">
         <v>1</v>
       </c>
-      <c r="E6" s="170" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="G6" s="169">
+      <c r="E6" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="143">
         <v>1</v>
       </c>
-      <c r="H6" s="170" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" s="171" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" s="169">
+      <c r="H6" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="145" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="143">
         <v>1</v>
       </c>
-      <c r="K6" s="170" t="s">
-        <v>204</v>
-      </c>
-      <c r="L6" s="171" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="89">
+      <c r="K6" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="145" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D7" s="146">
         <v>2</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="89">
+      <c r="E7" s="219" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="220" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="146">
         <v>2</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="89">
+      <c r="H7" s="219" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="220" t="s">
+        <v>243</v>
+      </c>
+      <c r="J7" s="146">
         <v>2</v>
       </c>
-      <c r="K7" s="90"/>
-      <c r="L7" s="91"/>
+      <c r="K7" s="219" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="220" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D8" s="89">
@@ -4737,31 +6698,31 @@
       <c r="L8" s="91"/>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="182">
+      <c r="D9" s="176">
         <v>4</v>
       </c>
-      <c r="E9" s="183" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="184" t="s">
+      <c r="E9" s="177" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="182">
+      <c r="G9" s="176">
         <v>4</v>
       </c>
-      <c r="H9" s="183" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="184" t="s">
+      <c r="H9" s="177" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="182">
+      <c r="J9" s="176">
         <v>4</v>
       </c>
-      <c r="K9" s="183" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" s="184" t="s">
+      <c r="K9" s="177" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="178" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4770,28 +6731,28 @@
         <v>5</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="91" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G10" s="89">
         <v>5</v>
       </c>
       <c r="H10" s="90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I10" s="91" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J10" s="89">
         <v>5</v>
       </c>
       <c r="K10" s="90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L10" s="91" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.25">
@@ -4799,28 +6760,28 @@
         <v>6</v>
       </c>
       <c r="E11" s="99" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F11" s="100" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G11" s="98">
         <v>6</v>
       </c>
       <c r="H11" s="99" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I11" s="100" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J11" s="98">
         <v>6</v>
       </c>
       <c r="K11" s="99" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L11" s="100" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.25">
@@ -4828,28 +6789,28 @@
         <v>7</v>
       </c>
       <c r="E12" s="99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F12" s="100" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" s="98">
         <v>7</v>
       </c>
       <c r="H12" s="99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I12" s="100" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J12" s="98">
         <v>7</v>
       </c>
       <c r="K12" s="99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L12" s="100" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="4:12" x14ac:dyDescent="0.25">
@@ -4857,28 +6818,28 @@
         <v>8</v>
       </c>
       <c r="E13" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G13" s="106">
         <v>8</v>
       </c>
       <c r="H13" s="107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I13" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="178">
+        <v>136</v>
+      </c>
+      <c r="J13" s="172">
         <v>8</v>
       </c>
-      <c r="K13" s="179" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="180" t="s">
-        <v>153</v>
+      <c r="K13" s="173" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="174" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="4:12" x14ac:dyDescent="0.25">
@@ -4886,28 +6847,28 @@
         <v>9</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="108" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G14" s="106">
         <v>9</v>
       </c>
       <c r="H14" s="107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I14" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="J14" s="178">
+        <v>137</v>
+      </c>
+      <c r="J14" s="172">
         <v>9</v>
       </c>
-      <c r="K14" s="179" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" s="180" t="s">
-        <v>154</v>
+      <c r="K14" s="173" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="174" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="4:12" x14ac:dyDescent="0.25">
@@ -4915,28 +6876,28 @@
         <v>10</v>
       </c>
       <c r="E15" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F15" s="108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G15" s="106">
         <v>10</v>
       </c>
       <c r="H15" s="107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I15" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" s="178">
+        <v>138</v>
+      </c>
+      <c r="J15" s="172">
         <v>10</v>
       </c>
-      <c r="K15" s="179" t="s">
-        <v>127</v>
-      </c>
-      <c r="L15" s="181" t="s">
-        <v>155</v>
+      <c r="K15" s="173" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="175" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="4:12" x14ac:dyDescent="0.25">
@@ -4944,28 +6905,28 @@
         <v>11</v>
       </c>
       <c r="E16" s="107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="108" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G16" s="106">
         <v>11</v>
       </c>
       <c r="H16" s="107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I16" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="178">
+        <v>139</v>
+      </c>
+      <c r="J16" s="172">
         <v>11</v>
       </c>
-      <c r="K16" s="179" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="180" t="s">
-        <v>156</v>
+      <c r="K16" s="173" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="174" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
@@ -4973,289 +6934,289 @@
         <v>12</v>
       </c>
       <c r="E17" s="107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G17" s="106">
         <v>12</v>
       </c>
       <c r="H17" s="107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I17" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="178">
+        <v>140</v>
+      </c>
+      <c r="J17" s="172">
         <v>12</v>
       </c>
-      <c r="K17" s="179" t="s">
-        <v>129</v>
-      </c>
-      <c r="L17" s="180" t="s">
-        <v>157</v>
+      <c r="K17" s="173" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="174" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="185">
+      <c r="D18" s="179">
         <v>13</v>
       </c>
       <c r="E18" s="157" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F18" s="158" t="s">
-        <v>213</v>
-      </c>
-      <c r="G18" s="185">
+        <v>204</v>
+      </c>
+      <c r="G18" s="179">
         <v>13</v>
       </c>
       <c r="H18" s="157" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I18" s="158" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J18" s="156">
         <v>13</v>
       </c>
       <c r="K18" s="157" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L18" s="158" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="185">
+      <c r="D19" s="179">
         <v>14</v>
       </c>
       <c r="E19" s="157" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F19" s="158" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="185">
+        <v>205</v>
+      </c>
+      <c r="G19" s="179">
         <v>14</v>
       </c>
       <c r="H19" s="157" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I19" s="158" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J19" s="156">
         <v>14</v>
       </c>
       <c r="K19" s="157" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L19" s="158" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="185">
+      <c r="D20" s="179">
         <v>15</v>
       </c>
       <c r="E20" s="157" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F20" s="158" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="185">
+        <v>206</v>
+      </c>
+      <c r="G20" s="179">
         <v>15</v>
       </c>
       <c r="H20" s="157" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I20" s="158" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="J20" s="156">
         <v>15</v>
       </c>
       <c r="K20" s="157" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L20" s="158" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="172">
+      <c r="D21" s="221">
         <v>16</v>
       </c>
-      <c r="E21" s="173" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" s="174" t="s">
+      <c r="E21" s="222" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="223" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="172">
+      <c r="G21" s="221">
         <v>16</v>
       </c>
-      <c r="H21" s="173" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" s="174" t="s">
+      <c r="H21" s="222" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="223" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="172">
+      <c r="J21" s="221">
         <v>16</v>
       </c>
-      <c r="K21" s="173" t="s">
-        <v>206</v>
-      </c>
-      <c r="L21" s="174" t="s">
+      <c r="K21" s="222" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" s="223" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="185">
+      <c r="D22" s="179">
         <v>17</v>
       </c>
       <c r="E22" s="157" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F22" s="158" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="185">
+        <v>207</v>
+      </c>
+      <c r="G22" s="179">
         <v>17</v>
       </c>
       <c r="H22" s="157" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I22" s="158" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="J22" s="156">
         <v>17</v>
       </c>
       <c r="K22" s="157" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L22" s="158" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="185">
+      <c r="D23" s="179">
         <v>18</v>
       </c>
       <c r="E23" s="157" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F23" s="158" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" s="185">
+        <v>208</v>
+      </c>
+      <c r="G23" s="179">
         <v>18</v>
       </c>
       <c r="H23" s="157" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I23" s="158" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="J23" s="156">
         <v>18</v>
       </c>
       <c r="K23" s="157" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L23" s="158" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="175">
+      <c r="D24" s="169">
         <v>19</v>
       </c>
-      <c r="E24" s="176" t="s">
-        <v>207</v>
-      </c>
-      <c r="F24" s="177" t="s">
-        <v>208</v>
-      </c>
-      <c r="G24" s="175">
+      <c r="E24" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="171" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="169">
         <v>19</v>
       </c>
-      <c r="H24" s="176" t="s">
-        <v>207</v>
-      </c>
-      <c r="I24" s="177" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" s="175">
+      <c r="H24" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="171" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" s="169">
         <v>19</v>
       </c>
-      <c r="K24" s="176" t="s">
-        <v>207</v>
-      </c>
-      <c r="L24" s="177" t="s">
-        <v>208</v>
+      <c r="K24" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" s="171" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="185">
+      <c r="D25" s="179">
         <v>20</v>
       </c>
       <c r="E25" s="157" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F25" s="158" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" s="185">
+        <v>209</v>
+      </c>
+      <c r="G25" s="179">
         <v>20</v>
       </c>
       <c r="H25" s="157" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I25" s="158" t="s">
-        <v>218</v>
-      </c>
-      <c r="J25" s="185">
+        <v>209</v>
+      </c>
+      <c r="J25" s="179">
         <v>20</v>
       </c>
       <c r="K25" s="157" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L25" s="158" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D26" s="185">
+      <c r="D26" s="179">
         <v>21</v>
       </c>
       <c r="E26" s="157" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F26" s="158" t="s">
-        <v>219</v>
-      </c>
-      <c r="G26" s="185">
+        <v>210</v>
+      </c>
+      <c r="G26" s="179">
         <v>21</v>
       </c>
       <c r="H26" s="157" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I26" s="158" t="s">
-        <v>219</v>
-      </c>
-      <c r="J26" s="185">
+        <v>210</v>
+      </c>
+      <c r="J26" s="179">
         <v>21</v>
       </c>
       <c r="K26" s="157" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L26" s="158" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M26" s="2"/>
     </row>
@@ -5264,148 +7225,148 @@
         <v>22</v>
       </c>
       <c r="E27" s="129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F27" s="130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G27" s="128">
         <v>22</v>
       </c>
       <c r="H27" s="129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I27" s="130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J27" s="128">
         <v>22</v>
       </c>
       <c r="K27" s="129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L27" s="130" t="s">
-        <v>145</v>
-      </c>
-      <c r="M27" s="206"/>
+        <v>143</v>
+      </c>
+      <c r="M27" s="193"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="128">
         <v>23</v>
       </c>
       <c r="E28" s="129" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F28" s="130" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G28" s="128">
         <v>23</v>
       </c>
       <c r="H28" s="129" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I28" s="130" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J28" s="128">
         <v>23</v>
       </c>
       <c r="K28" s="129" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L28" s="130" t="s">
-        <v>146</v>
-      </c>
-      <c r="M28" s="206"/>
+        <v>144</v>
+      </c>
+      <c r="M28" s="193"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="128">
         <v>24</v>
       </c>
       <c r="E29" s="129" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F29" s="130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G29" s="128">
         <v>24</v>
       </c>
       <c r="H29" s="129" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I29" s="130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J29" s="128">
         <v>24</v>
       </c>
       <c r="K29" s="129" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L29" s="130" t="s">
-        <v>147</v>
-      </c>
-      <c r="M29" s="206"/>
+        <v>145</v>
+      </c>
+      <c r="M29" s="193"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="128">
         <v>25</v>
       </c>
       <c r="E30" s="129" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F30" s="130" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G30" s="128">
         <v>25</v>
       </c>
       <c r="H30" s="129" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I30" s="130" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J30" s="128">
         <v>25</v>
       </c>
       <c r="K30" s="129" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L30" s="130" t="s">
-        <v>148</v>
-      </c>
-      <c r="M30" s="206"/>
+        <v>146</v>
+      </c>
+      <c r="M30" s="193"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="128">
         <v>26</v>
       </c>
       <c r="E31" s="129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F31" s="130" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G31" s="128">
         <v>26</v>
       </c>
       <c r="H31" s="129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I31" s="130" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J31" s="128">
         <v>26</v>
       </c>
       <c r="K31" s="129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L31" s="130" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M31" s="2"/>
     </row>
@@ -5447,10 +7408,10 @@
         <v>29</v>
       </c>
       <c r="K34" s="119" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L34" s="120" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5460,14 +7421,14 @@
       <c r="G35" s="168"/>
       <c r="H35" s="168"/>
       <c r="I35" s="168"/>
-      <c r="J35" s="186">
+      <c r="J35" s="180">
         <v>30</v>
       </c>
       <c r="K35" s="119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L35" s="120" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.25">
@@ -5500,103 +7461,130 @@
     </row>
     <row r="39" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" s="131" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="E39" s="132"/>
       <c r="F39" s="132"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="196" t="s">
+      <c r="G39" s="1"/>
+      <c r="H39" s="210"/>
+      <c r="I39" s="210"/>
+      <c r="J39" s="211"/>
+      <c r="K39" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="197"/>
+      <c r="L39" s="191"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" s="133" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="K40" s="86"/>
+        <v>157</v>
+      </c>
+      <c r="E40" s="197"/>
+      <c r="F40" s="197"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="213"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="199"/>
       <c r="L40" s="87"/>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="141"/>
-      <c r="F41" s="142"/>
-      <c r="G41" t="s">
-        <v>202</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="I41" s="28"/>
-      <c r="K41" s="86"/>
+      <c r="D41" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="197"/>
+      <c r="F41" s="197"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="213"/>
+      <c r="I41" s="213"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="199"/>
       <c r="L41" s="87"/>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D42" s="140" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="141"/>
-      <c r="F42" s="142"/>
-      <c r="G42" t="s">
-        <v>209</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="K42" s="86"/>
+        <v>233</v>
+      </c>
+      <c r="E42" s="200"/>
+      <c r="F42" s="201"/>
+      <c r="G42" s="198" t="s">
+        <v>196</v>
+      </c>
+      <c r="H42" s="213"/>
+      <c r="I42" s="213"/>
+      <c r="J42" s="214"/>
+      <c r="K42" s="199"/>
       <c r="L42" s="87"/>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D43" s="140" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="141"/>
-      <c r="F43" s="142"/>
-      <c r="G43" t="s">
-        <v>210</v>
-      </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="K43" s="86"/>
+        <v>83</v>
+      </c>
+      <c r="E43" s="200"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="H43" s="213"/>
+      <c r="I43" s="213"/>
+      <c r="J43" s="214"/>
+      <c r="K43" s="199"/>
       <c r="L43" s="87"/>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="50"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="K44" s="86"/>
+      <c r="D44" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="200"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="H44" s="213"/>
+      <c r="I44" s="213"/>
+      <c r="J44" s="214"/>
+      <c r="K44" s="199"/>
       <c r="L44" s="87"/>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D45" s="135"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
+      <c r="D45" s="149" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="202"/>
+      <c r="F45" s="202"/>
+      <c r="G45" s="198"/>
+      <c r="H45" s="215"/>
+      <c r="I45" s="215"/>
+      <c r="J45" s="214"/>
+      <c r="K45" s="198"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="137"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="139"/>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D46" s="149" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="202"/>
+      <c r="F46" s="202"/>
+      <c r="G46" s="198"/>
+      <c r="H46" s="215"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="214"/>
+      <c r="K46" s="198"/>
+      <c r="L46" s="206"/>
+    </row>
+    <row r="47" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="203" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" s="204"/>
+      <c r="F47" s="204"/>
+      <c r="G47" s="205" t="s">
+        <v>238</v>
+      </c>
+      <c r="H47" s="212"/>
+      <c r="I47" s="212"/>
+      <c r="J47" s="212"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5605,13 +7593,40 @@
     <mergeCell ref="M27:M30"/>
     <mergeCell ref="K39:L39"/>
   </mergeCells>
+  <conditionalFormatting sqref="E6:F6">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:I6">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:L6">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07A32F8-C0A7-416D-AD2B-DFB53846F5E3}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5631,32 +7646,32 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="D3" s="184" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="43" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="42"/>
@@ -5667,10 +7682,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="144" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F6" s="145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" s="88"/>
       <c r="H6" s="90"/>
@@ -5681,10 +7696,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="147" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F7" s="148" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="89"/>
       <c r="H7" s="90"/>
@@ -5695,10 +7710,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="147" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F8" s="148" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G8" s="89"/>
       <c r="H8" s="90"/>
@@ -5709,10 +7724,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="157" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F9" s="158" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G9" s="89"/>
       <c r="H9" s="90"/>
@@ -5723,10 +7738,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="157" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F10" s="158" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G10" s="89"/>
       <c r="H10" s="90"/>
@@ -5737,10 +7752,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="160" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F11" s="161" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G11" s="89"/>
       <c r="H11" s="90"/>
@@ -5785,7 +7800,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="206"/>
+      <c r="J16" s="193"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="89"/>
@@ -5794,7 +7809,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="206"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89"/>
@@ -5803,7 +7818,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="206"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89"/>
@@ -5812,7 +7827,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="206"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="89"/>
@@ -5885,19 +7900,19 @@
     </row>
     <row r="29" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="149" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="191"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E30" s="151"/>
       <c r="F30" s="151"/>
@@ -5949,7 +7964,7 @@
     <mergeCell ref="H29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:F6">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5957,7 +7972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CA6581-F86A-44D6-8D68-368B14D2D292}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5977,32 +7992,32 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="D3" s="184" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="43" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="42"/>
@@ -6013,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="144" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" s="145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" s="88"/>
       <c r="H6" s="90"/>
@@ -6027,10 +8042,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="147" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" s="148" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="89"/>
       <c r="H7" s="90"/>
@@ -6041,10 +8056,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="147" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" s="148" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G8" s="89"/>
       <c r="H8" s="90"/>
@@ -6067,10 +8082,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G10" s="89"/>
       <c r="H10" s="90"/>
@@ -6095,10 +8110,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F12" s="120" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G12" s="89"/>
       <c r="H12" s="90"/>
@@ -6109,10 +8124,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="157" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F13" s="158" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G13" s="89"/>
       <c r="H13" s="90"/>
@@ -6123,10 +8138,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="157" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F14" s="158" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G14" s="89"/>
       <c r="H14" s="90"/>
@@ -6137,10 +8152,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="157" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F15" s="158" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G15" s="89"/>
       <c r="H15" s="90"/>
@@ -6151,70 +8166,70 @@
         <v>10</v>
       </c>
       <c r="E16" s="157" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F16" s="158" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="206"/>
+      <c r="J16" s="193"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="156">
         <v>11</v>
       </c>
       <c r="E17" s="157" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F17" s="158" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="206"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
         <v>12</v>
       </c>
       <c r="E18" s="124" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="206"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
         <v>13</v>
       </c>
       <c r="E19" s="126" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19" s="127" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="206"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="128">
         <v>14</v>
       </c>
       <c r="E20" s="129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G20" s="89"/>
       <c r="H20" s="90"/>
@@ -6225,10 +8240,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="129" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F21" s="130" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G21" s="89"/>
       <c r="H21" s="90"/>
@@ -6239,10 +8254,10 @@
         <v>16</v>
       </c>
       <c r="E22" s="129" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G22" s="89"/>
       <c r="H22" s="90"/>
@@ -6253,10 +8268,10 @@
         <v>17</v>
       </c>
       <c r="E23" s="129" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" s="130" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G23" s="89"/>
       <c r="H23" s="90"/>
@@ -6267,10 +8282,10 @@
         <v>18</v>
       </c>
       <c r="E24" s="129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F24" s="130" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G24" s="89"/>
       <c r="H24" s="90"/>
@@ -6281,10 +8296,10 @@
         <v>19</v>
       </c>
       <c r="E25" s="157" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F25" s="158" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G25" s="89"/>
       <c r="H25" s="90"/>
@@ -6316,10 +8331,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="191"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="50"/>
@@ -6373,1866 +8388,8 @@
     <mergeCell ref="H29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:F6">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D402C37-66B5-4257-A1F7-F7996E4A697B}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="C2:N36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
-    </row>
-    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
-    </row>
-    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="143">
-        <v>1</v>
-      </c>
-      <c r="E6" s="144" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="145" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="88">
-        <v>1</v>
-      </c>
-      <c r="H6" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="91" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="146">
-        <v>2</v>
-      </c>
-      <c r="E7" s="147" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="156">
-        <v>2</v>
-      </c>
-      <c r="H7" s="157" t="s">
-        <v>165</v>
-      </c>
-      <c r="I7" s="158" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="146">
-        <v>3</v>
-      </c>
-      <c r="E8" s="147" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="148" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="156">
-        <v>3</v>
-      </c>
-      <c r="H8" s="157" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" s="158" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="89">
-        <v>4</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="156">
-        <v>4</v>
-      </c>
-      <c r="H9" s="157" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="158" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="89">
-        <v>5</v>
-      </c>
-      <c r="E10" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="156">
-        <v>5</v>
-      </c>
-      <c r="H10" s="157" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="158" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="98">
-        <v>6</v>
-      </c>
-      <c r="E11" s="99" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="156">
-        <v>6</v>
-      </c>
-      <c r="H11" s="157" t="s">
-        <v>169</v>
-      </c>
-      <c r="I11" s="158" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="89">
-        <v>7</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="156">
-        <v>7</v>
-      </c>
-      <c r="H12" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="I12" s="158" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="106">
-        <v>8</v>
-      </c>
-      <c r="E13" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="156">
-        <v>8</v>
-      </c>
-      <c r="H13" s="157" t="s">
-        <v>183</v>
-      </c>
-      <c r="I13" s="158" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="106">
-        <v>9</v>
-      </c>
-      <c r="E14" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="89">
-        <v>9</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="91" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="106">
-        <v>10</v>
-      </c>
-      <c r="E15" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="89">
-        <v>10</v>
-      </c>
-      <c r="H15" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="91" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="106">
-        <v>11</v>
-      </c>
-      <c r="E16" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="89">
-        <v>11</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="206"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="106">
-        <v>12</v>
-      </c>
-      <c r="E17" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="89">
-        <v>12</v>
-      </c>
-      <c r="H17" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="206"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="123">
-        <v>13</v>
-      </c>
-      <c r="E18" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="125" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="89">
-        <v>13</v>
-      </c>
-      <c r="H18" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="206"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="123">
-        <v>14</v>
-      </c>
-      <c r="E19" s="126" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="127" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="89">
-        <v>14</v>
-      </c>
-      <c r="H19" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="91"/>
-      <c r="J19" s="206"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="115">
-        <v>15</v>
-      </c>
-      <c r="E20" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="89">
-        <v>15</v>
-      </c>
-      <c r="H20" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="I20" s="91"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="115">
-        <v>16</v>
-      </c>
-      <c r="E21" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" s="89">
-        <v>16</v>
-      </c>
-      <c r="H21" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="91"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="115">
-        <v>17</v>
-      </c>
-      <c r="E22" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="89">
-        <v>17</v>
-      </c>
-      <c r="H22" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="I22" s="91"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="115">
-        <v>18</v>
-      </c>
-      <c r="E23" s="116" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="117" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="89">
-        <v>18</v>
-      </c>
-      <c r="H23" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="I23" s="91"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="115">
-        <v>19</v>
-      </c>
-      <c r="E24" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="117" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="89">
-        <v>19</v>
-      </c>
-      <c r="H24" s="90" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24" s="91"/>
-    </row>
-    <row r="25" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="89">
-        <v>20</v>
-      </c>
-      <c r="E25" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="91"/>
-      <c r="G25" s="118">
-        <v>20</v>
-      </c>
-      <c r="H25" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="67"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="69"/>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="51"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="52"/>
-      <c r="N27" s="85"/>
-    </row>
-    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="4"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="149" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="197"/>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="149" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="87"/>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="152" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="153"/>
-      <c r="F31" s="154"/>
-      <c r="G31" t="s">
-        <v>211</v>
-      </c>
-      <c r="H31" s="86"/>
-      <c r="I31" s="87"/>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="50"/>
-      <c r="F32" s="28"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="87"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="87"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="50"/>
-      <c r="F34" s="28"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="87"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="135"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="137"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="139"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="H29:I29"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E6:F6">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F51AC91-C073-48F1-A978-1644164E838A}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="D2:T36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
-    </row>
-    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
-    </row>
-    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="97">
-        <v>1</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="109">
-        <v>1</v>
-      </c>
-      <c r="H6" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="93">
-        <v>2</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="112">
-        <v>2</v>
-      </c>
-      <c r="H7" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="93">
-        <v>3</v>
-      </c>
-      <c r="E8" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="115">
-        <v>3</v>
-      </c>
-      <c r="H8" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="93">
-        <v>4</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="115">
-        <v>4</v>
-      </c>
-      <c r="H9" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="98">
-        <v>5</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="115">
-        <v>5</v>
-      </c>
-      <c r="H10" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="89">
-        <v>6</v>
-      </c>
-      <c r="E11" s="121" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="122" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="115">
-        <v>6</v>
-      </c>
-      <c r="H11" s="116" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="117" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="98">
-        <v>7</v>
-      </c>
-      <c r="E12" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="115">
-        <v>7</v>
-      </c>
-      <c r="H12" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="106">
-        <v>8</v>
-      </c>
-      <c r="E13" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="112">
-        <v>8</v>
-      </c>
-      <c r="H13" s="113" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="106">
-        <v>9</v>
-      </c>
-      <c r="E14" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="89">
-        <v>9</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="91" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="106">
-        <v>10</v>
-      </c>
-      <c r="E15" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="89">
-        <v>10</v>
-      </c>
-      <c r="H15" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="91" t="s">
-        <v>154</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="106">
-        <v>11</v>
-      </c>
-      <c r="E16" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="89">
-        <v>11</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="206"/>
-    </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D17" s="106">
-        <v>12</v>
-      </c>
-      <c r="E17" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="89">
-        <v>12</v>
-      </c>
-      <c r="H17" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="206"/>
-    </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D18" s="123">
-        <v>13</v>
-      </c>
-      <c r="E18" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="125" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="89">
-        <v>13</v>
-      </c>
-      <c r="H18" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="206"/>
-    </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D19" s="123">
-        <v>14</v>
-      </c>
-      <c r="E19" s="126" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="127" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="106">
-        <v>14</v>
-      </c>
-      <c r="H19" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="206"/>
-    </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D20" s="93">
-        <v>15</v>
-      </c>
-      <c r="E20" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="106">
-        <v>15</v>
-      </c>
-      <c r="H20" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D21" s="93">
-        <v>16</v>
-      </c>
-      <c r="E21" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="106">
-        <v>16</v>
-      </c>
-      <c r="H21" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D22" s="93">
-        <v>17</v>
-      </c>
-      <c r="E22" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="93">
-        <v>17</v>
-      </c>
-      <c r="H22" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D23" s="185">
-        <v>18</v>
-      </c>
-      <c r="E23" s="157" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="158" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="93">
-        <v>18</v>
-      </c>
-      <c r="H23" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D24" s="185">
-        <v>19</v>
-      </c>
-      <c r="E24" s="157" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="158" t="s">
-        <v>214</v>
-      </c>
-      <c r="G24" s="128">
-        <v>19</v>
-      </c>
-      <c r="H24" s="129" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="130" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="118">
-        <v>20</v>
-      </c>
-      <c r="E25" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="120" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="118">
-        <v>20</v>
-      </c>
-      <c r="H25" s="119" t="s">
-        <v>130</v>
-      </c>
-      <c r="I25" s="120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D26" s="67"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="69"/>
-    </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D27" s="51"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="52"/>
-      <c r="T27" s="85"/>
-    </row>
-    <row r="28" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="131" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="197"/>
-    </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D30" s="133" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="87"/>
-    </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D31" s="133" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="87"/>
-    </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D32" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="141"/>
-      <c r="F32" s="142"/>
-      <c r="G32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" s="86"/>
-      <c r="I32" s="87"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="140" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="141"/>
-      <c r="F33" s="142"/>
-      <c r="G33" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" s="86"/>
-      <c r="I33" s="87"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="140" t="s">
-        <v>203</v>
-      </c>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
-      <c r="G34" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="86"/>
-      <c r="I34" s="87"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="135"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="137"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="139"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J16:J19"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F25AB18-3E43-4253-BC4D-F3ACD98E8098}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="D2:T44"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
-    </row>
-    <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
-    </row>
-    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="204" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="205"/>
-      <c r="F5" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="204" t="s">
-        <v>221</v>
-      </c>
-      <c r="H5" s="205"/>
-      <c r="I5" s="43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="97">
-        <v>1</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="109">
-        <v>1</v>
-      </c>
-      <c r="H6" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="93">
-        <v>2</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="112">
-        <v>2</v>
-      </c>
-      <c r="H7" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="93">
-        <v>3</v>
-      </c>
-      <c r="E8" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="115">
-        <v>3</v>
-      </c>
-      <c r="H8" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="93">
-        <v>4</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="115">
-        <v>4</v>
-      </c>
-      <c r="H9" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="98">
-        <v>5</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="115">
-        <v>5</v>
-      </c>
-      <c r="H10" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="89">
-        <v>6</v>
-      </c>
-      <c r="E11" s="121" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="122" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="115">
-        <v>6</v>
-      </c>
-      <c r="H11" s="116" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="117" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="98">
-        <v>7</v>
-      </c>
-      <c r="E12" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="115">
-        <v>7</v>
-      </c>
-      <c r="H12" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="106">
-        <v>8</v>
-      </c>
-      <c r="E13" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="112">
-        <v>8</v>
-      </c>
-      <c r="H13" s="113" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="106">
-        <v>9</v>
-      </c>
-      <c r="E14" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="89">
-        <v>9</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="91" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="106">
-        <v>10</v>
-      </c>
-      <c r="E15" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="89">
-        <v>10</v>
-      </c>
-      <c r="H15" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="91" t="s">
-        <v>154</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="106">
-        <v>11</v>
-      </c>
-      <c r="E16" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="89">
-        <v>11</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="206"/>
-    </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D17" s="106">
-        <v>12</v>
-      </c>
-      <c r="E17" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="89">
-        <v>12</v>
-      </c>
-      <c r="H17" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="206"/>
-    </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D18" s="123">
-        <v>13</v>
-      </c>
-      <c r="E18" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="125" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="89">
-        <v>13</v>
-      </c>
-      <c r="H18" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="206"/>
-    </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D19" s="123">
-        <v>14</v>
-      </c>
-      <c r="E19" s="126" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="127" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="106">
-        <v>14</v>
-      </c>
-      <c r="H19" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="206"/>
-    </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D20" s="93">
-        <v>15</v>
-      </c>
-      <c r="E20" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="106">
-        <v>15</v>
-      </c>
-      <c r="H20" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D21" s="93">
-        <v>16</v>
-      </c>
-      <c r="E21" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="106">
-        <v>16</v>
-      </c>
-      <c r="H21" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D22" s="93">
-        <v>17</v>
-      </c>
-      <c r="E22" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="93">
-        <v>17</v>
-      </c>
-      <c r="H22" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D23" s="115">
-        <v>18</v>
-      </c>
-      <c r="E23" s="116" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="93">
-        <v>18</v>
-      </c>
-      <c r="H23" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D24" s="115">
-        <v>19</v>
-      </c>
-      <c r="E24" s="116" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="128">
-        <v>19</v>
-      </c>
-      <c r="H24" s="129" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="130" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="115">
-        <v>20</v>
-      </c>
-      <c r="E25" s="116" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="117" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="118">
-        <v>20</v>
-      </c>
-      <c r="H25" s="119" t="s">
-        <v>130</v>
-      </c>
-      <c r="I25" s="120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D26" s="67"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="118">
-        <v>21</v>
-      </c>
-      <c r="H26" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" s="120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D27" s="51"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="187">
-        <v>22</v>
-      </c>
-      <c r="H27" s="157" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="158" t="s">
-        <v>213</v>
-      </c>
-      <c r="T27" s="85"/>
-    </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D28" s="51"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="187">
-        <v>23</v>
-      </c>
-      <c r="H28" s="157" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="158" t="s">
-        <v>214</v>
-      </c>
-      <c r="T28" s="85"/>
-    </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D29" s="51"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="187">
-        <v>24</v>
-      </c>
-      <c r="H29" s="157" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" s="158" t="s">
-        <v>215</v>
-      </c>
-      <c r="T29" s="85"/>
-    </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D30" s="51"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="187">
-        <v>25</v>
-      </c>
-      <c r="H30" s="157" t="s">
-        <v>168</v>
-      </c>
-      <c r="I30" s="158" t="s">
-        <v>216</v>
-      </c>
-      <c r="T30" s="85"/>
-    </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D31" s="51"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="187">
-        <v>26</v>
-      </c>
-      <c r="H31" s="157" t="s">
-        <v>169</v>
-      </c>
-      <c r="I31" s="158" t="s">
-        <v>217</v>
-      </c>
-      <c r="T31" s="85"/>
-    </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D32" s="51"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="187">
-        <v>27</v>
-      </c>
-      <c r="H32" s="157" t="s">
-        <v>170</v>
-      </c>
-      <c r="I32" s="158" t="s">
-        <v>218</v>
-      </c>
-      <c r="T32" s="85"/>
-    </row>
-    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D33" s="51"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="187">
-        <v>28</v>
-      </c>
-      <c r="H33" s="157" t="s">
-        <v>183</v>
-      </c>
-      <c r="I33" s="158" t="s">
-        <v>219</v>
-      </c>
-      <c r="T33" s="85"/>
-    </row>
-    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D34" s="51"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="32">
-        <v>29</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="T34" s="85"/>
-    </row>
-    <row r="35" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="51"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="36">
-        <v>30</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="I35" s="10"/>
-      <c r="T35" s="85"/>
-    </row>
-    <row r="36" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="131" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="196" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="197"/>
-    </row>
-    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D38" s="133" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="H38" s="190" t="s">
-        <v>232</v>
-      </c>
-      <c r="I38" s="191" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D39" s="133"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="H39" s="190" t="s">
-        <v>233</v>
-      </c>
-      <c r="I39" s="191" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D40" s="140" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" s="141"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="86" t="s">
-        <v>202</v>
-      </c>
-      <c r="H40" s="190" t="s">
-        <v>234</v>
-      </c>
-      <c r="I40" s="191" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D41" s="140" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="141"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="86" t="s">
-        <v>209</v>
-      </c>
-      <c r="H41" s="192" t="s">
-        <v>235</v>
-      </c>
-      <c r="I41" s="193" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D42" s="140" t="s">
-        <v>203</v>
-      </c>
-      <c r="E42" s="141"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="86" t="s">
-        <v>210</v>
-      </c>
-      <c r="H42" s="192" t="s">
-        <v>236</v>
-      </c>
-      <c r="I42" s="193" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D43" s="188" t="s">
-        <v>239</v>
-      </c>
-      <c r="E43" s="189" t="s">
-        <v>240</v>
-      </c>
-      <c r="F43" s="136"/>
-      <c r="H43" s="192" t="s">
-        <v>237</v>
-      </c>
-      <c r="I43" s="193" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="137"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="194" t="s">
-        <v>238</v>
-      </c>
-      <c r="I44" s="195" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-  </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
@@ -8255,24 +8412,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="198" t="s">
+      <c r="E3" s="185"/>
+      <c r="F3" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="199"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="201"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -8620,10 +8777,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="196" t="s">
+      <c r="H29" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="197"/>
+      <c r="I29" s="191"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
